--- a/docs/Cronograma de Desenvolvimento do Projeto.xlsx
+++ b/docs/Cronograma de Desenvolvimento do Projeto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157C6EFB-0186-4AC3-A304-38090F3F86FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB80BAE-55F4-4F55-844C-016EDEDA10E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC0F3A2A-1D63-4A69-9568-EB4C356676E5}"/>
   </bookViews>
@@ -262,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,7 +274,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -282,9 +281,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -294,6 +293,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,7 +619,7 @@
   <dimension ref="B3:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="F8:I8"/>
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,66 +631,66 @@
   <sheetData>
     <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>2022</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="20"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="19"/>
     </row>
     <row r="5" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="18" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="18" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="18" t="s">
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="18" t="s">
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="18" t="s">
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Y5" s="20"/>
+      <c r="Y5" s="19"/>
     </row>
     <row r="6" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
@@ -760,252 +768,252 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
     </row>
     <row r="8" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
     </row>
     <row r="10" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
     </row>
     <row r="11" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
     </row>
     <row r="12" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
     </row>
     <row r="13" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="2"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="16"/>
     </row>
     <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="14"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
     </row>
     <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/docs/Cronograma de Desenvolvimento do Projeto.xlsx
+++ b/docs/Cronograma de Desenvolvimento do Projeto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Documents\GitHub\Basicamente\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB80BAE-55F4-4F55-844C-016EDEDA10E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A837404-9DDA-4A54-AAD7-7E2B2789DDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC0F3A2A-1D63-4A69-9568-EB4C356676E5}"/>
   </bookViews>
@@ -262,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -282,26 +282,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,7 +636,7 @@
   <dimension ref="B3:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,66 +648,66 @@
   <sheetData>
     <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="17">
+      <c r="D4" s="19">
         <v>2022</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="21"/>
     </row>
     <row r="5" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="17" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="17" t="s">
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="17" t="s">
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Y5" s="19"/>
+      <c r="Y5" s="21"/>
     </row>
     <row r="6" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
@@ -768,252 +785,304 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23">
+        <v>2</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
     </row>
     <row r="8" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="22">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22">
+        <v>2</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
     </row>
     <row r="10" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="24">
+        <v>1</v>
+      </c>
+      <c r="I10" s="24">
+        <v>2</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
     </row>
     <row r="11" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="25">
+        <v>1</v>
+      </c>
+      <c r="K11" s="25">
+        <v>2</v>
+      </c>
+      <c r="L11" s="25">
+        <v>3</v>
+      </c>
+      <c r="M11" s="25">
+        <v>4</v>
+      </c>
+      <c r="N11" s="25">
+        <v>5</v>
+      </c>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
     </row>
     <row r="12" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="26">
+        <v>1</v>
+      </c>
+      <c r="P12" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>3</v>
+      </c>
+      <c r="R12" s="26">
+        <v>4</v>
+      </c>
+      <c r="S12" s="26">
+        <v>5</v>
+      </c>
+      <c r="T12" s="26">
+        <v>6</v>
+      </c>
+      <c r="U12" s="26">
+        <v>7</v>
+      </c>
+      <c r="V12" s="26">
+        <v>8</v>
+      </c>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
     </row>
     <row r="13" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="16"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="27">
+        <v>1</v>
+      </c>
+      <c r="W13" s="27">
+        <v>2</v>
+      </c>
+      <c r="X13" s="27">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="15"/>
     </row>
     <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
       <c r="C14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="28">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
       <c r="C15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="28"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="29">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/docs/Cronograma de Desenvolvimento do Projeto.xlsx
+++ b/docs/Cronograma de Desenvolvimento do Projeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Documents\GitHub\Basicamente\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A837404-9DDA-4A54-AAD7-7E2B2789DDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22002165-48F9-40E8-AF47-88F08167F903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC0F3A2A-1D63-4A69-9568-EB4C356676E5}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +107,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -282,10 +289,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -295,28 +313,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,7 +651,7 @@
   <dimension ref="B3:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,66 +663,66 @@
   <sheetData>
     <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="19">
+      <c r="D4" s="20">
         <v>2022</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="22"/>
     </row>
     <row r="5" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="19" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="19" t="s">
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="19" t="s">
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="Y5" s="21"/>
+      <c r="Y5" s="22"/>
     </row>
     <row r="6" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
@@ -785,232 +800,232 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23">
-        <v>1</v>
-      </c>
-      <c r="E7" s="23">
-        <v>2</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
     </row>
     <row r="8" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="22">
-        <v>1</v>
-      </c>
-      <c r="G8" s="22">
-        <v>2</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15">
+        <v>2</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16">
-        <v>1</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
     </row>
     <row r="10" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="24">
-        <v>1</v>
-      </c>
-      <c r="I10" s="24">
-        <v>2</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="17">
+        <v>1</v>
+      </c>
+      <c r="I10" s="17">
+        <v>2</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
     </row>
     <row r="11" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="25">
-        <v>1</v>
-      </c>
-      <c r="K11" s="25">
-        <v>2</v>
-      </c>
-      <c r="L11" s="25">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="18">
+        <v>1</v>
+      </c>
+      <c r="K11" s="18">
+        <v>2</v>
+      </c>
+      <c r="L11" s="18">
         <v>3</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="18">
         <v>4</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="18">
         <v>5</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
     </row>
     <row r="12" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="26">
-        <v>1</v>
-      </c>
-      <c r="P12" s="26">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="26">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="19">
+        <v>1</v>
+      </c>
+      <c r="P12" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="19">
         <v>3</v>
       </c>
-      <c r="R12" s="26">
+      <c r="R12" s="19">
         <v>4</v>
       </c>
-      <c r="S12" s="26">
+      <c r="S12" s="19">
         <v>5</v>
       </c>
-      <c r="T12" s="26">
+      <c r="T12" s="19">
         <v>6</v>
       </c>
-      <c r="U12" s="26">
+      <c r="U12" s="19">
         <v>7</v>
       </c>
-      <c r="V12" s="26">
+      <c r="V12" s="19">
         <v>8</v>
       </c>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
     </row>
     <row r="13" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
       <c r="V13" s="27">
         <v>1</v>
       </c>
@@ -1020,33 +1035,33 @@
       <c r="X13" s="27">
         <v>3</v>
       </c>
-      <c r="Y13" s="15"/>
+      <c r="Y13" s="24"/>
     </row>
     <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
       <c r="C14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
       <c r="X14" s="28">
         <v>1</v>
       </c>
@@ -1059,27 +1074,27 @@
       <c r="C15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
       <c r="Y15" s="29">
         <v>1</v>
       </c>

--- a/docs/Cronograma de Desenvolvimento do Projeto.xlsx
+++ b/docs/Cronograma de Desenvolvimento do Projeto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Documents\GitHub\Basicamente\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22002165-48F9-40E8-AF47-88F08167F903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FC8BB1-385F-45EF-B5D5-36FC006B4B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC0F3A2A-1D63-4A69-9568-EB4C356676E5}"/>
   </bookViews>
@@ -301,7 +301,25 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -313,25 +331,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,7 +651,7 @@
   <dimension ref="B3:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,66 +663,66 @@
   <sheetData>
     <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="20">
+      <c r="D4" s="26">
         <v>2022</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="22"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="28"/>
     </row>
     <row r="5" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="20" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="20" t="s">
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="20" t="s">
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="Y5" s="22"/>
+      <c r="Y5" s="28"/>
     </row>
     <row r="6" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
@@ -806,132 +806,132 @@
       <c r="E7" s="16">
         <v>2</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
     </row>
     <row r="8" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="15">
         <v>1</v>
       </c>
       <c r="G8" s="15">
         <v>2</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25">
-        <v>1</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
     </row>
     <row r="10" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="17">
         <v>1</v>
       </c>
       <c r="I10" s="17">
         <v>2</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
     </row>
     <row r="11" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="18">
         <v>1</v>
       </c>
@@ -947,125 +947,125 @@
       <c r="N11" s="18">
         <v>5</v>
       </c>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
     </row>
     <row r="12" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="19">
-        <v>1</v>
-      </c>
-      <c r="P12" s="19">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="19">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="29">
+        <v>1</v>
+      </c>
+      <c r="P12" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="29">
         <v>3</v>
       </c>
-      <c r="R12" s="19">
+      <c r="R12" s="29">
         <v>4</v>
       </c>
-      <c r="S12" s="19">
+      <c r="S12" s="29">
         <v>5</v>
       </c>
-      <c r="T12" s="19">
+      <c r="T12" s="29">
         <v>6</v>
       </c>
-      <c r="U12" s="19">
+      <c r="U12" s="29">
         <v>7</v>
       </c>
-      <c r="V12" s="19">
+      <c r="V12" s="29">
         <v>8</v>
       </c>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
     </row>
     <row r="13" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="27">
-        <v>1</v>
-      </c>
-      <c r="W13" s="27">
-        <v>2</v>
-      </c>
-      <c r="X13" s="27">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="23">
+        <v>1</v>
+      </c>
+      <c r="W13" s="23">
+        <v>2</v>
+      </c>
+      <c r="X13" s="23">
         <v>3</v>
       </c>
-      <c r="Y13" s="24"/>
+      <c r="Y13" s="20"/>
     </row>
     <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
       <c r="C14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="28">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="24">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="24">
         <v>2</v>
       </c>
     </row>
@@ -1074,28 +1074,28 @@
       <c r="C15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="29">
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="25">
         <v>1</v>
       </c>
     </row>

--- a/docs/Cronograma de Desenvolvimento do Projeto.xlsx
+++ b/docs/Cronograma de Desenvolvimento do Projeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Documents\GitHub\Basicamente\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FC8BB1-385F-45EF-B5D5-36FC006B4B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5353CED4-AAF6-4B2A-AE8C-60403D31E029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC0F3A2A-1D63-4A69-9568-EB4C356676E5}"/>
   </bookViews>
@@ -119,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +180,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -269,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,9 +319,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,7 +334,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,7 +663,7 @@
   <dimension ref="B3:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,66 +675,66 @@
   <sheetData>
     <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>2022</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="27"/>
     </row>
     <row r="5" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="26" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="26" t="s">
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="26" t="s">
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="Y5" s="28"/>
+      <c r="Y5" s="27"/>
     </row>
     <row r="6" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
@@ -870,7 +882,9 @@
       <c r="G9" s="21">
         <v>1</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="21">
+        <v>2</v>
+      </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="20"/>
@@ -904,7 +918,9 @@
       <c r="I10" s="17">
         <v>2</v>
       </c>
-      <c r="J10" s="19"/>
+      <c r="J10" s="17">
+        <v>3</v>
+      </c>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
@@ -932,22 +948,22 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="18">
-        <v>1</v>
-      </c>
+      <c r="J11" s="28"/>
       <c r="K11" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" s="18">
+        <v>2</v>
+      </c>
+      <c r="M11" s="18">
         <v>3</v>
       </c>
-      <c r="M11" s="18">
+      <c r="N11" s="18">
         <v>4</v>
       </c>
-      <c r="N11" s="18">
+      <c r="O11" s="18">
         <v>5</v>
       </c>
-      <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="20"/>
@@ -975,23 +991,21 @@
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="19"/>
-      <c r="O12" s="29">
-        <v>1</v>
-      </c>
+      <c r="O12" s="28"/>
       <c r="P12" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="29">
+        <v>2</v>
+      </c>
+      <c r="R12" s="29">
         <v>3</v>
       </c>
-      <c r="R12" s="29">
+      <c r="S12" s="29">
         <v>4</v>
       </c>
-      <c r="S12" s="29">
+      <c r="T12" s="29">
         <v>5</v>
-      </c>
-      <c r="T12" s="29">
-        <v>6</v>
       </c>
       <c r="U12" s="29">
         <v>7</v>
@@ -999,7 +1013,9 @@
       <c r="V12" s="29">
         <v>8</v>
       </c>
-      <c r="W12" s="20"/>
+      <c r="W12" s="29">
+        <v>9</v>
+      </c>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
     </row>
@@ -1026,15 +1042,9 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
-      <c r="V13" s="23">
-        <v>1</v>
-      </c>
-      <c r="W13" s="23">
-        <v>2</v>
-      </c>
-      <c r="X13" s="23">
-        <v>3</v>
-      </c>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
       <c r="Y13" s="20"/>
     </row>
     <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1062,12 +1072,10 @@
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="W14" s="22"/>
-      <c r="X14" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="24">
-        <v>2</v>
-      </c>
+      <c r="X14" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="31"/>
     </row>
     <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
@@ -1095,7 +1103,7 @@
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
-      <c r="Y15" s="25">
+      <c r="Y15" s="24">
         <v>1</v>
       </c>
     </row>
